--- a/Data from Paho/excels/2014/excel/2014-jul-11-cha-CHIKV-authoch-imported-cases-ew-28.xlsx
+++ b/Data from Paho/excels/2014/excel/2014-jul-11-cha-CHIKV-authoch-imported-cases-ew-28.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\chikonguniya\Data from Paho\excels\2014\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9FF80594-3D47-45F3-ABE3-6C8ABAC733D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19230" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -371,8 +377,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +415,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -455,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,9 +501,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,6 +553,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,65 +746,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
         <v>55</v>
       </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
-      <c r="D2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -762,849 +809,846 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>25.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>3.6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>601</v>
+      </c>
+      <c r="F15">
+        <v>241.4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>502.5</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>301</v>
+      </c>
+      <c r="E19">
+        <v>107</v>
+      </c>
+      <c r="F19">
+        <v>11.1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>680</v>
+      </c>
+      <c r="E20">
+        <v>142</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21">
+        <v>793</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22">
+        <v>949.6</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>206.3</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>25.5</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" t="s">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>2.8</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31">
+        <v>141</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
+      <c r="F32">
+        <v>4.5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="E36">
+        <v>28</v>
+      </c>
+      <c r="F36">
+        <v>115.7</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>214</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>329</v>
+      </c>
+      <c r="E38">
+        <v>67</v>
+      </c>
+      <c r="F38">
+        <v>384.5</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>123</v>
+      </c>
+      <c r="F39">
+        <v>307.5</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <v>3.2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>35.4</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>62.5</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44">
         <v>7</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" t="s">
+      <c r="F44">
+        <v>6.7</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>3.6</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>601</v>
-      </c>
-      <c r="G15">
-        <v>241.4</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>502.5</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18">
-        <v>12</v>
-      </c>
-      <c r="I18">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19">
-        <v>301</v>
-      </c>
-      <c r="F19">
-        <v>107</v>
-      </c>
-      <c r="G19">
-        <v>11.1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20">
-        <v>680</v>
-      </c>
-      <c r="F20">
-        <v>142</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21">
-        <v>793</v>
-      </c>
-      <c r="G21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22">
-        <v>949.6</v>
-      </c>
-      <c r="H22">
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45">
+        <v>511</v>
+      </c>
+      <c r="F45">
+        <v>57.5</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46">
+        <v>398.8</v>
+      </c>
+      <c r="G46">
         <v>21</v>
       </c>
-      <c r="I22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>33</v>
-      </c>
-      <c r="G24">
-        <v>206.3</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>4.4</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>2.8</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31">
-        <v>141</v>
-      </c>
-      <c r="G31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>4.5</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>16</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36">
-        <v>31</v>
-      </c>
-      <c r="F36">
-        <v>28</v>
-      </c>
-      <c r="G36">
-        <v>115.7</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37">
-        <v>214</v>
-      </c>
-      <c r="F37">
-        <v>30</v>
-      </c>
-      <c r="G37">
-        <v>149.7</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38">
-        <v>329</v>
-      </c>
-      <c r="F38">
-        <v>67</v>
-      </c>
-      <c r="G38">
-        <v>384.5</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>123</v>
-      </c>
-      <c r="G39">
-        <v>307.5</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>17</v>
-      </c>
-      <c r="G40">
-        <v>3.2</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>17</v>
-      </c>
-      <c r="G42">
-        <v>35.4</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>20</v>
-      </c>
-      <c r="G43">
-        <v>62.5</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>7</v>
-      </c>
-      <c r="G44">
-        <v>6.7</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45">
-        <v>511</v>
-      </c>
-      <c r="G45">
-        <v>57.5</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46">
-        <v>398.8</v>
-      </c>
-      <c r="H46">
-        <v>21</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1614,45 +1658,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="4" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>115</v>
       </c>
@@ -1674,12 +1713,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -1693,7 +1732,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -1707,12 +1746,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1726,7 +1765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1740,12 +1779,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1759,12 +1798,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -1778,7 +1817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -1792,7 +1831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -1806,12 +1845,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -1825,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -1839,12 +1878,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1858,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1872,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1886,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
